--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6henr\CodingProjects\Python-MLA-Citation-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18E2FAD-26E2-49F7-8B83-F87F71917859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9F9721-6013-4644-A46B-1CEA85ED5A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="1476" windowWidth="17280" windowHeight="8964" xr2:uid="{4D5BBA41-6C45-40FA-8D5F-43A61D91F7CD}"/>
   </bookViews>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6henr\CodingProjects\Python-MLA-Citation-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9F9721-6013-4644-A46B-1CEA85ED5A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943A1D4B-617E-4099-8AEF-3A3D5EEB3F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1476" windowWidth="17280" windowHeight="8964" xr2:uid="{4D5BBA41-6C45-40FA-8D5F-43A61D91F7CD}"/>
+    <workbookView xWindow="2016" yWindow="876" windowWidth="17280" windowHeight="8964" xr2:uid="{4D5BBA41-6C45-40FA-8D5F-43A61D91F7CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,24 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Author1 M.I.</t>
-  </si>
-  <si>
-    <t>Author2 M.I.</t>
-  </si>
-  <si>
-    <t>Author1 Last</t>
-  </si>
-  <si>
-    <t>Author1 First</t>
-  </si>
-  <si>
-    <t>Author2 Last</t>
-  </si>
-  <si>
-    <t>Author2 First</t>
-  </si>
-  <si>
     <t># of Authors</t>
   </si>
   <si>
@@ -79,6 +61,24 @@
   </si>
   <si>
     <t>Date Accessed</t>
+  </si>
+  <si>
+    <t>Author1 Last Name</t>
+  </si>
+  <si>
+    <t>Author1 First Name</t>
+  </si>
+  <si>
+    <t>Author1 Middle Name</t>
+  </si>
+  <si>
+    <t>Author2 Last Name</t>
+  </si>
+  <si>
+    <t>Author2 First Name</t>
+  </si>
+  <si>
+    <t>Author2 Middle Name</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,52 +454,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6henr\CodingProjects\Python-MLA-Citation-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943A1D4B-617E-4099-8AEF-3A3D5EEB3F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5949C77D-EDC3-4258-A07A-F06313529474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2016" yWindow="876" windowWidth="17280" windowHeight="8964" xr2:uid="{4D5BBA41-6C45-40FA-8D5F-43A61D91F7CD}"/>
   </bookViews>
@@ -433,23 +433,27 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="54.6640625" customWidth="1"/>
-    <col min="9" max="9" width="46.109375" customWidth="1"/>
-    <col min="10" max="10" width="54.21875" customWidth="1"/>
-    <col min="13" max="13" width="33.88671875" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" customWidth="1"/>
-    <col min="15" max="15" width="41.88671875" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.21875" customWidth="1"/>
+    <col min="9" max="9" width="52.6640625" customWidth="1"/>
+    <col min="10" max="10" width="44.88671875" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.77734375" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="55.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
